--- a/Memo/guide_keycaps.xlsx
+++ b/Memo/guide_keycaps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenn/Git/jpskenn/Nora/Memo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0121FEA2-C293-ED48-A15F-8DDE754CC404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F85030-8835-4140-8E38-7B7CA87BFBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2960" yWindow="10740" windowWidth="28300" windowHeight="17440" xr2:uid="{12818A9D-80F0-364A-AE05-4139B10728A3}"/>
   </bookViews>
@@ -287,13 +287,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD63532-CE55-3C4E-9A2C-2544F4DD2586}">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -661,14 +661,14 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
@@ -683,12 +683,12 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="2:11" ht="43" customHeight="1">
       <c r="B9" t="s">
@@ -703,14 +703,14 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
@@ -725,12 +725,12 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" ht="92" customHeight="1">
       <c r="B11" t="s">
@@ -767,12 +767,12 @@
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11" ht="89" customHeight="1">
       <c r="B13" t="s">
@@ -787,14 +787,14 @@
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
@@ -809,14 +809,14 @@
       <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="2:11">
       <c r="F15" s="4"/>
@@ -846,17 +846,9 @@
       <c r="D20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
+  <mergeCells count="2">
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="F16:K16"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="F12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
